--- a/4 курс/7_semester/ТЯПиМТ/theory_pl&tm/lr3/LL.xlsx
+++ b/4 курс/7_semester/ТЯПиМТ/theory_pl&tm/lr3/LL.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,6 +463,11 @@
           <t>FOLLOWS2</t>
         </is>
       </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>DIRECTIONS</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -505,6 +510,11 @@
           <t>⊥ )</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>( a</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -547,6 +557,11 @@
           <t>⊥ )</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -574,6 +589,11 @@
           <t>e</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>⊥ )</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -616,6 +636,11 @@
           <t>⊥ + )</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>( a</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -658,6 +683,11 @@
           <t>⊥ + )</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -685,6 +715,11 @@
           <t>e</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>⊥ + )</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -727,6 +762,11 @@
           <t>⊥ + * )</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>(</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -750,6 +790,11 @@
         </is>
       </c>
       <c r="E9" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>a</t>
         </is>

--- a/4 курс/7_semester/ТЯПиМТ/theory_pl&tm/lr3/LL.xlsx
+++ b/4 курс/7_semester/ТЯПиМТ/theory_pl&tm/lr3/LL.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="List2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -623,17 +624,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>⊥ +</t>
+          <t>+ ⊥</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>⊥ + )</t>
+          <t>+ ⊥ )</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>⊥ + )</t>
+          <t>+ ⊥ )</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -670,17 +671,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>⊥ +</t>
+          <t>+ ⊥</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>⊥ + )</t>
+          <t>+ ⊥ )</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>⊥ + )</t>
+          <t>+ ⊥ )</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -717,7 +718,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>⊥ + )</t>
+          <t>+ ⊥ )</t>
         </is>
       </c>
     </row>
@@ -749,17 +750,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>⊥ + *</t>
+          <t>* + ⊥</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>⊥ + * )</t>
+          <t>* ) + ⊥</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>⊥ + * )</t>
+          <t>* ) + ⊥</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -828,6 +829,325 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>НЕТЕРМИНАЛЫ</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>terminals</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>left: E</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>( a</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>right: T</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>( a</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>right: E'</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>+ ⊥ )</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>left: E'</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>left: E'</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>⊥ )</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>right: +</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>right: T</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>( a</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>right: E'</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>+ ⊥ )</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>right: e</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>⊥ )</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>left: T</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>( a</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>right: F</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>( a</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>right: T'</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>* + ⊥ )</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>left: T'</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>left: T'</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>+ ⊥ )</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>right: *</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>right: F</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>( a</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>right: T'</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>* + ⊥ )</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>right: e</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>+ ⊥ )</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>left: F</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>(</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>left: F</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>right: (</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>(</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>right: E</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>( a</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>right: )</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>right: a</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/4 курс/7_semester/ТЯПиМТ/theory_pl&tm/lr3/LL.xlsx
+++ b/4 курс/7_semester/ТЯПиМТ/theory_pl&tm/lr3/LL.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="List2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="parse_table" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,30 +441,15 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>START2</t>
+          <t>FOLLOWS0</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>START3</t>
+          <t>FOLLOWS1</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
-        <is>
-          <t>FOLLOWS0</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>FOLLOWS1</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>FOLLOWS2</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
         <is>
           <t>DIRECTIONS</t>
         </is>
@@ -473,351 +458,219 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>E -&gt; T E'</t>
+          <t>PROGRAM -&gt; begin DECLIST semi STARTLIST end</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>∅</t>
+          <t>begin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>∅</t>
+          <t>begin</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>( a</t>
+          <t>⊥</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>( a</t>
+          <t>⊥</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>⊥ )</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>⊥ )</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>⊥ )</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>( a</t>
+          <t>begin</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>E' -&gt; + T E'</t>
+          <t>DECLIST -&gt; d X</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>d</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>d</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>semi</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>semi</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>⊥</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>⊥ )</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>⊥ )</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>+</t>
+          <t>d</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>E' -&gt; e</t>
+          <t>X -&gt; comma DECLIST</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>comma</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>comma</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>semi</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>⊥ )</t>
+          <t>semi</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>comma</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>T -&gt; F T'</t>
+          <t>X -&gt; e</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>∅</t>
+          <t>e</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>( a</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>( a</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>( a</t>
+          <t>e</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>+ ⊥</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>+ ⊥ )</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>+ ⊥ )</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>( a</t>
+          <t>semi</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>T' -&gt; * F T'</t>
+          <t>STARTLIST -&gt; s Y</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>s</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>s</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>end</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>end</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>+ ⊥</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>+ ⊥ )</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>+ ⊥ )</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>*</t>
+          <t>s</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>T' -&gt; e</t>
+          <t>Y -&gt; comma STARTLIST</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>comma</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>comma</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>end</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>+ ⊥ )</t>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>comma</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>F -&gt; ( E )</t>
+          <t>Y -&gt; e</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>(</t>
+          <t>e</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>(</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>(</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>(</t>
+          <t>e</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>* + ⊥</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>* ) + ⊥</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>* ) + ⊥</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>(</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>F -&gt; a</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>a</t>
+          <t>end</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="H5"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="F2"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H2"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G2"/>
-    <mergeCell ref="F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G5"/>
+  <mergeCells count="10">
+    <mergeCell ref="D3"/>
+    <mergeCell ref="E3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D2"/>
+    <mergeCell ref="E2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -829,7 +682,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -848,292 +701,799 @@
           <t>terminals</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>jump</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>accept</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>stack</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>return</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>left: E</t>
+          <t>left: PROGRAM</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>( a</t>
+          <t>begin</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>right: T</t>
+          <t>right: begin</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>( a</t>
+          <t>begin</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>right: E'</t>
+          <t>right: DECLIST</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>+ ⊥ )</t>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>left: E'</t>
+          <t>right: semi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>semi</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>left: E'</t>
+          <t>right: STARTLIST</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>⊥ )</t>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>right: +</t>
+          <t>right: end</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>right: T</t>
+          <t>left: DECLIST</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>( a</t>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>right: E'</t>
+          <t>right: d</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>+ ⊥ )</t>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>right: e</t>
+          <t>right: X</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>⊥ )</t>
+          <t>comma semi</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>11</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>left: T</t>
+          <t>left: X</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>( a</t>
+          <t>comma</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>13</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>right: F</t>
+          <t>left: X</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>( a</t>
+          <t>semi</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>15</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>right: T'</t>
+          <t>right: comma</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>* + ⊥ )</t>
+          <t>comma</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>14</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>left: T'</t>
+          <t>right: DECLIST</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>8</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>left: T'</t>
+          <t>right: e</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>+ ⊥ )</t>
+          <t>semi</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>right: *</t>
+          <t>left: STARTLIST</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>17</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>right: F</t>
+          <t>right: s</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>( a</t>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>18</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>right: T'</t>
+          <t>right: Y</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>* + ⊥ )</t>
+          <t>comma end</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>19</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>right: e</t>
+          <t>left: Y</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>+ ⊥ )</t>
+          <t>comma</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>21</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>left: F</t>
+          <t>left: Y</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>(</t>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>23</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>left: F</t>
+          <t>right: comma</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>comma</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>22</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>right: (</t>
+          <t>right: STARTLIST</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>(</t>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>16</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>right: E</t>
+          <t>right: e</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>( a</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>right: )</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>)</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>right: a</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>a</t>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>

--- a/4 курс/7_semester/ТЯПиМТ/theory_pl&tm/lr3/LL.xlsx
+++ b/4 курс/7_semester/ТЯПиМТ/theory_pl&tm/lr3/LL.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="List1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="parse_table" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="parse_table" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="temp_list" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Sheet" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,252 +426,5711 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ПРАВИЛО</t>
+          <t>НЕТЕРМИНАЛЫ</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>START0</t>
+          <t>terminals</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>START1</t>
+          <t>jump</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>FOLLOWS0</t>
+          <t>accept</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>FOLLOWS1</t>
+          <t>stack</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>DIRECTIONS</t>
+          <t>return</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>error</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PROGRAM -&gt; begin DECLIST semi STARTLIST end</t>
+          <t>left: K0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>begin</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>begin</t>
-        </is>
+          <t>\s } ⊥</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>⊥</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>⊥</t>
+          <t>False</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>begin</t>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DECLIST -&gt; d X</t>
+          <t>right: S</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>d</t>
-        </is>
+          <t>\s namespace unsigned signed int double float char long short void</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>semi</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>semi</t>
+          <t>True</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>X -&gt; comma DECLIST</t>
+          <t>right: INIT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>comma</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>comma</t>
-        </is>
+          <t>namespace unsigned signed int double float char long short void</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>semi</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>semi</t>
+          <t>False</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>comma</t>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>X -&gt; e</t>
+          <t>left: S</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>e</t>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>False</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>semi</t>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>STARTLIST -&gt; s Y</t>
+          <t>left: S</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>s</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>s</t>
-        </is>
+          <t>... , short { int char namespace ; double float \s [a-zA-Z_] unsigned [ ( ) [1-9] void } long ] signed</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>end</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>end</t>
+          <t>False</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Y -&gt; comma STARTLIST</t>
+          <t>right: REQ_S</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>comma</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>comma</t>
-        </is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>9</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>end</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>end</t>
+          <t>False</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>comma</t>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Y -&gt; e</t>
+          <t>right: e</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>e</t>
+          <t>... , short { int char namespace ; double float \s [a-zA-Z_] unsigned [ ( ) [1-9] void } long ] signed</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>False</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>end</t>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>left: REQ_S</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>right: \s</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>11</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>right: S</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>\s ... , short { int char namespace ; double float \s [a-zA-Z_] unsigned [ ( ) [1-9] } void long ] signed</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>left: INIT</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>namespace</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>14</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>left: INIT</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>unsigned signed int double float char long short void</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>21</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>right: namespace</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>namespace</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>15</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>right: REQ_S</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>9</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>right: ID</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>[a-zA-Z_]</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>108</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>right: {</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>{</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>18</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>right: REST</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>namespace unsigned signed int double float char long short void \s }</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>31</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>right: }</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>}</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>20</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>right: K0</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>\s } ⊥</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>right: MOD_TYPE</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>unsigned signed int double float char long short void</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>48</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>right: REQ_S</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>9</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>right: ID</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>[a-zA-Z_]</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>108</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>right: (</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>(</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>25</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>right: S</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>\s unsigned signed int double float char long short void )</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>5</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>right: PARAMS</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>unsigned signed int double float char long short void )</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>135</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>right: )</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>)</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>28</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>right: S</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>\s ; {</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>5</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>right: BODY</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>; {</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>42</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>right: K0</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>\s } ⊥</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>left: REST</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>namespace unsigned signed int double float char long short void</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>34</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>left: REST</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>35</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>left: REST</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>}</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>37</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>right: INIT</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>namespace unsigned signed int double float char long short void</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>12</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>right: REQ_S</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>9</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>right: REST2</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>namespace unsigned signed int double float char long short void }</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>38</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>right: e</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>}</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>left: REST2</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>namespace unsigned signed int double float char long short void</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>40</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>left: REST2</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>}</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>41</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>right: INIT</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>namespace unsigned signed int double float char long short void</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>12</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>right: e</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>}</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>left: BODY</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>;</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>44</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>left: BODY</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>{</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>45</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>right: ;</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>;</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>right: {</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>{</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>46</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>right: S</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>\s }</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>5</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>right: }</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>}</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>left: MOD_TYPE</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>unsigned signed int double float char long short</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>50</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>left: MOD_TYPE</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>void</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>51</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>right: MOD_TYPE_NONVOID</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>unsigned signed int double float char long short</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>52</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>right: VOID</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>void</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>58</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>left: MOD_TYPE_NONVOID</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>unsigned signed</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>54</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>left: MOD_TYPE_NONVOID</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>int double float char long short</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>57</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>right: MOD</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>unsigned signed</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>104</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>right: REQ_S</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>9</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>right: TYPE</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>int double float char long short</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>60</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>right: TYPE</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>int double float char long short</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>60</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>left: VOID</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>void</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>59</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>right: void</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>void</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>left: TYPE</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>66</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>left: TYPE</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>double</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>68</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>left: TYPE</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>70</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>left: TYPE</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>char</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>71</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>left: TYPE</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>72</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>left: TYPE</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>74</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>right: int</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>67</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>right: INT</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>\s ) \s</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>76</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>right: double</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>double</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>69</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>right: DOUBLE</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>\s ) \s</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>81</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>right: float</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>right: char</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>char</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>right: long</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>73</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>right: LONG</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>\s ) \s</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>86</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>right: short</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>75</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>right: SHORT</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>\s ) \s</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>91</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>left: INT</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>78</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>left: INT</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>) \s</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>80</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>right: REQ_S</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>9</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>right: LENGTH</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>long short</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>96</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>right: e</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>) \s</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>left: DOUBLE</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>83</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>left: DOUBLE</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>) \s</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>85</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>right: REQ_S</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>9</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>right: long</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>right: e</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>) \s</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>left: LONG</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>88</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>left: LONG</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>) \s</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>90</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>right: REQ_S</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>9</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>right: LONGTYPES</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>int double</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>100</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>right: e</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>) \s</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>left: SHORT</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>93</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>left: SHORT</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>) \s</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>95</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>right: REQ_S</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>9</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>right: int</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>right: e</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>) \s</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>left: LENGTH</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>98</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>left: LENGTH</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>99</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>right: long</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>right: short</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>0</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>left: LONGTYPES</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>102</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>left: LONGTYPES</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>double</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>103</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>right: int</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>right: double</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>double</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>0</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>left: MOD</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>unsigned</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>106</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>left: MOD</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>signed</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>107</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>right: unsigned</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>unsigned</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>right: signed</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>signed</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>left: ID</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>[a-zA-Z_]</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>109</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>right: [a-zA-Z_]</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>[a-zA-Z_]</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>110</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>right: INNERID</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>[a-zA-Z0-9_] \s , ( ) \s {</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>111</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>left: INNERID</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>[a-zA-Z0-9_]</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>113</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>left: INNERID</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>\s , ( ) \s {</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>115</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>right: [a-zA-Z0-9_]</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>[a-zA-Z0-9_]</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>114</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>right: INNERID</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>[a-zA-Z0-9_] \s , ( ) \s {</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>111</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>right: S</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>\s [ , ( ) \s {</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>5</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>right: ARRAY</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>[ , ( ) \s {</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>117</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>left: ARRAY</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>[</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>119</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>left: ARRAY</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>, ( ) \s {</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>126</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>right: [</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>[</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>120</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>right: S</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>\s [1-9]</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>5</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>right: OP</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>[1-9]</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>127</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>right: S</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>\s ]</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>5</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>right: ]</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>]</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>124</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>right: S</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>\s [ , ( ) \s {</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>5</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>right: ARRAY</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>[ , ( ) \s {</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>117</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>right: e</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>, ( ) \s {</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>0</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>left: OP</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>[1-9]</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>128</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>right: [1-9]</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>[1-9]</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>129</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>right: OP1</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>[0-9] \s ]</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>130</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>left: OP1</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>[0-9]</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>132</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>left: OP1</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>\s ]</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>134</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>right: [0-9]</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>[0-9]</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>133</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>right: OP1</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>[0-9] \s ]</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>130</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>right: e</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>\s ]</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>0</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>left: PARAMS</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>unsigned signed int double float char long short</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>138</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>left: PARAMS</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>void</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>140</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>left: PARAMS</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>)</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>142</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>right: MOD_TYPE_NONVOID</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>unsigned signed int double float char long short</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>52</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>right: PARAM_NAME</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>\s , )</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>143</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>right: VOID</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>void</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>58</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>right: S</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>\s )</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>5</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>right: e</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>)</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>0</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>left: PARAM_NAME</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>145</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>left: PARAM_NAME</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>, )</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>147</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>right: REQ_S</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>9</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>right: ID_NON</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>[a-zA-Z_] , )</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>148</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>right: COMMA_NON</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>, )</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>154</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>left: ID_NON</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>[a-zA-Z_]</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>150</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>left: ID_NON</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>, )</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>153</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>right: ID</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>[a-zA-Z_]</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>108</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>right: S</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>\s , )</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>5</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>right: COMMA_NON</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>, )</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>154</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>right: COMMA_NON</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>, )</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>154</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>left: COMMA_NON</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>156</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>left: COMMA_NON</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>)</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>159</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>right: ,</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>157</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>right: S</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>\s unsigned signed int double float char long short void ) ...</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>5</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>right: TAIL</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>unsigned signed int double float char long short void ) ...</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>160</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>right: e</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>)</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>0</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>left: TAIL</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>unsigned signed int double float char long short void )</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>162</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>left: TAIL</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>163</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>right: PARAMS</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>unsigned signed int double float char long short void )</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>135</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>right: ...</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>0</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="D3"/>
-    <mergeCell ref="E3"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D2"/>
-    <mergeCell ref="E2"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -682,7 +6141,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -693,811 +6152,3134 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>НЕТЕРМИНАЛЫ</t>
+          <t>ПРАВИЛО</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>terminals</t>
+          <t>START0</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>jump</t>
+          <t>START1</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>accept</t>
+          <t>START2</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>stack</t>
+          <t>START3</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>return</t>
+          <t>START4</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>START5</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>FOLLOWS0</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>FOLLOWS1</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>FOLLOWS2</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>FOLLOWS3</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>DIRECTIONS</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>left: PROGRAM</t>
+          <t>K0 -&gt; S INIT</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>begin</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
+          <t>∅</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>\s e</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>\s e</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>\s e</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>\s e</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>⊥</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>} ⊥</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>} ⊥</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>} ⊥</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>\s } ⊥</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>right: begin</t>
+          <t>S -&gt; REQ_S</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>begin</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
+          <t>∅</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>... , short { int char namespace ; double float unsigned [ ( ) [1-9] void } long ] signed</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>... , short { int char namespace ; double float \s [a-zA-Z_] unsigned [ ( ) [1-9] void } long ] signed</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>... , short { int char namespace ; double float \s [a-zA-Z_] unsigned [ ( ) [1-9] void } long ] signed</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>... , short { int char namespace ; double float \s [a-zA-Z_] unsigned [ ( ) [1-9] void } long ] signed</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>\s</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>right: DECLIST</t>
+          <t>S -&gt; e</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>e</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>e</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>e</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>... , short { int char namespace ; double float \s [a-zA-Z_] unsigned [ ( ) [1-9] void } long ] signed</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>right: semi</t>
+          <t>REQ_S -&gt; \s S</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>semi</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>long char namespace double } signed float short ) void [a-zA-Z_] unsigned int</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>... , short { int char namespace ; double float [a-zA-Z_] unsigned [ ( ) [1-9] } void long ] signed</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>... , short { int char namespace ; double float \s [a-zA-Z_] unsigned [ ( ) [1-9] } void long ] signed</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>... , short { int char namespace ; double float \s [a-zA-Z_] unsigned [ ( ) [1-9] } void long ] signed</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>\s</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>right: STARTLIST</t>
+          <t>INIT -&gt; namespace REQ_S ID { REST } K0</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>s</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>16</v>
+          <t>namespace</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>namespace</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>namespace</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>namespace</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>namespace</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>namespace</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>} ⊥</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>} ⊥</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>} ⊥</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>} ⊥</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>namespace</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>right: end</t>
+          <t>INIT -&gt; MOD_TYPE REQ_S ID ( S PARAMS ) S BODY K0</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
+          <t>∅</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>∅</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>void</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>unsigned signed int double float char long short void</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>unsigned signed int double float char long short void</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>unsigned signed int double float char long short void</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>unsigned signed int double float char long short void</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>left: DECLIST</t>
+          <t>REST -&gt; INIT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>9</v>
+          <t>∅</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>namespace</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>namespace</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>namespace void</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>namespace unsigned signed int double float char long short void</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>namespace unsigned signed int double float char long short void</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>}</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>}</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>}</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>}</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>namespace unsigned signed int double float char long short void</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>right: d</t>
+          <t>REST -&gt; REQ_S REST2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>10</v>
+          <t>∅</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>\s</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>right: X</t>
+          <t>REST -&gt; e</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>comma semi</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>11</v>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>e</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>e</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>e</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>}</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>left: X</t>
+          <t>REST2 -&gt; INIT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>comma</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>13</v>
+          <t>∅</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>namespace</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>namespace</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>namespace void</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>namespace unsigned signed int double float char long short void</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>namespace unsigned signed int double float char long short void</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>}</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>}</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>}</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>}</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>namespace unsigned signed int double float char long short void</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>left: X</t>
+          <t>REST2 -&gt; e</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>semi</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>15</v>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>e</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>e</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>e</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>}</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>right: comma</t>
+          <t>BODY -&gt; ;</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>comma</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>14</v>
+          <t>;</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>;</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>;</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>;</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>;</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>;</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>⊥</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>} ⊥</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>} ⊥</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>} ⊥</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>;</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>right: DECLIST</t>
+          <t>BODY -&gt; { S }</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>8</v>
+          <t>{</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>{</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>{</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>{</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>{</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>{</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>{</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>right: e</t>
+          <t>MOD_TYPE -&gt; MOD_TYPE_NONVOID</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>semi</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
+          <t>∅</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>∅</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>unsigned signed int double float char long short</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>unsigned signed int double float char long short</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>unsigned signed int double float char long short</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>unsigned signed int double float char long short</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>unsigned signed int double float char long short</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>left: STARTLIST</t>
+          <t>MOD_TYPE -&gt; VOID</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>s</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>17</v>
+          <t>∅</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>void</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>void</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>void</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>void</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>void</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>void</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>right: s</t>
+          <t>MOD_TYPE_NONVOID -&gt; MOD REQ_S TYPE</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>s</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>18</v>
+          <t>∅</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>unsigned signed</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>unsigned signed</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>unsigned signed</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>unsigned signed</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>unsigned signed</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>) \s</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>) \s</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>) \s</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>) \s</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>unsigned signed</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>right: Y</t>
+          <t>MOD_TYPE_NONVOID -&gt; TYPE</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>comma end</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>19</v>
+          <t>∅</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>int double float char long short</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>int double float char long short</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>int double float char long short</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>int double float char long short</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>int double float char long short</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>int double float char long short</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>left: Y</t>
+          <t>VOID -&gt; void</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>comma</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>21</v>
+          <t>void</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>void</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>void</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>void</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>void</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>void</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>) \s</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>) \s</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>) \s</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>) \s</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>void</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>left: Y</t>
+          <t>TYPE -&gt; int INT</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>23</v>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>int</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>int</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>int</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>) \s</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>) \s</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>) \s</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>int</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>right: comma</t>
+          <t>TYPE -&gt; double DOUBLE</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>comma</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>22</v>
+          <t>double</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>double</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>double</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>double</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>double</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>double</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>double</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>right: STARTLIST</t>
+          <t>TYPE -&gt; float</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>s</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>16</v>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>float</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>float</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>float</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>float</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>right: e</t>
+          <t>TYPE -&gt; char</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
+          <t>char</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>char</t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>char</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>char</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>char</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>char</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>char</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>TYPE -&gt; long LONG</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>TYPE -&gt; short SHORT</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>INT -&gt; REQ_S LENGTH</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>∅</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>) \s</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>) \s</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>) \s</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>INT -&gt; e</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>) \s</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>DOUBLE -&gt; REQ_S long</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>∅</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>) \s</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>) \s</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>) \s</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>DOUBLE -&gt; e</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>) \s</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>LONG -&gt; REQ_S LONGTYPES</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>∅</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>) \s</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>) \s</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>) \s</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>LONG -&gt; e</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>) \s</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>SHORT -&gt; REQ_S int</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>∅</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>) \s</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>) \s</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>) \s</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>SHORT -&gt; e</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>) \s</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>LENGTH -&gt; long</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>) \s</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>) \s</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>) \s</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>LENGTH -&gt; short</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>LONGTYPES -&gt; int</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>) \s</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>) \s</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>) \s</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>LONGTYPES -&gt; double</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>double</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>double</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>double</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>double</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>double</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>double</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>double</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>MOD -&gt; unsigned</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>unsigned</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>unsigned</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>unsigned</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>unsigned</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>unsigned</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>unsigned</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>unsigned</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>MOD -&gt; signed</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>signed</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>signed</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>signed</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>signed</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>signed</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>signed</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>signed</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>ID -&gt; [a-zA-Z_] INNERID</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>[a-zA-Z_]</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>[a-zA-Z_]</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>[a-zA-Z_]</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>[a-zA-Z_]</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>[a-zA-Z_]</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>[a-zA-Z_]</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>, ( ) \s {</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>, ( ) \s {</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>, ( ) \s {</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>, ( ) \s {</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>[a-zA-Z_]</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>INNERID -&gt; [a-zA-Z0-9_] INNERID</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>[a-zA-Z0-9_]</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>[a-zA-Z0-9_]</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>[a-zA-Z0-9_]</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>[a-zA-Z0-9_]</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>[a-zA-Z0-9_]</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>[a-zA-Z0-9_]</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>{ (</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>, ( ) \s {</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>, ( ) \s {</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>, ( ) \s {</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>[a-zA-Z0-9_]</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>INNERID -&gt; S ARRAY</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>∅</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>\s e</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>\s e</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>\s e</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>\s e</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>\s , ( ) \s {</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>ARRAY -&gt; [ S OP S ] S ARRAY</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>[</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>[</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>[</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>[</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>[</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>[</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>{ (</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>, ( ) \s {</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>, ( ) \s {</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>, ( ) \s {</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>[</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>ARRAY -&gt; e</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>, ( ) \s {</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>OP -&gt; [1-9] OP1</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>[1-9]</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>[1-9]</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>[1-9]</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>[1-9]</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>[1-9]</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>[1-9]</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>\s ]</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>\s ]</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>\s ]</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>\s ]</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>[1-9]</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>OP1 -&gt; [0-9] OP1</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>[0-9]</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>[0-9]</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>[0-9]</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>[0-9]</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>[0-9]</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>[0-9]</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>\s ]</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>\s ]</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>\s ]</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>\s ]</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>[0-9]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>OP1 -&gt; e</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>\s ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>PARAMS -&gt; MOD_TYPE_NONVOID PARAM_NAME</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>∅</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>∅</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>unsigned signed int double float char long short</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>unsigned signed int double float char long short</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>unsigned signed int double float char long short</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>unsigned signed int double float char long short</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>)</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>)</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>)</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>)</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>unsigned signed int double float char long short</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>PARAMS -&gt; VOID S</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>∅</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>void</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>void</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>void</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>void</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>void</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>void</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>PARAMS -&gt; e</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>)</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>PARAM_NAME -&gt; REQ_S ID_NON</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>∅</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>)</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>)</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>)</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>)</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>\s</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>PARAM_NAME -&gt; COMMA_NON</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>∅</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>, e</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>, e</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>, e</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>, e</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>, e</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>, )</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>ID_NON -&gt; ID S COMMA_NON</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>∅</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>[a-zA-Z_]</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>[a-zA-Z_]</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>[a-zA-Z_]</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>[a-zA-Z_]</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>[a-zA-Z_]</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>)</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>)</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>)</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>)</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>[a-zA-Z_]</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>ID_NON -&gt; COMMA_NON</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>∅</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>, e</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>, e</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>, e</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>, e</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>, e</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>, )</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>COMMA_NON -&gt; , S TAIL</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>)</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>)</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>)</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>)</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>COMMA_NON -&gt; e</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>)</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>TAIL -&gt; PARAMS</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>∅</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>void e</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>unsigned signed int double float char long short void e</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>unsigned signed int double float char long short void e</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>unsigned signed int double float char long short void e</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>)</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>)</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>)</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>)</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>unsigned signed int double float char long short void )</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>TAIL -&gt; ...</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>...</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="112">
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="K48:K50"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I57:I58"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="H5"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="I2"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="I45"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="K45"/>
+    <mergeCell ref="J20:J25"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="J2"/>
+    <mergeCell ref="K20:K25"/>
+    <mergeCell ref="I40"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="J5"/>
+    <mergeCell ref="J19"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="H45"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I5"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="H20:H25"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="J48:J50"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="J45"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="K2"/>
+    <mergeCell ref="H19"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I19"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K19"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="K5"/>
+    <mergeCell ref="H40"/>
+    <mergeCell ref="J40"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="K40"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="H2"/>
+    <mergeCell ref="I20:I25"/>
+    <mergeCell ref="I46:I47"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
